--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001917</t>
-  </si>
-  <si>
-    <t>007950</t>
-  </si>
-  <si>
-    <t>招商量化精选股票A</t>
-  </si>
-  <si>
-    <t>招商量化精选股票C</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>91.15</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>0.0237</t>
-  </si>
-  <si>
-    <t>0.0068</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,559 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.49</v>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.49</v>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1547,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009736</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合A</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.28</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37.20</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8256</t>
+          <t>1.1618</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009737</t>
+          <t>011956</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合C</t>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.17</t>
+          <t>14.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>37.20</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2848</t>
+          <t>0.8633</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>011460</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>鹏华创新成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1827</t>
+          <t>0.4160</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001816</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.3417</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.62</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0341</t>
+          <t>0.2762</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -827,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002024</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红塔红土稳健回报灵活配置混合C</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0234</t>
+          <t>0.2519</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -865,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012216</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红塔红土盛利混合型证券投资基金A</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>52.09</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.2371</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -903,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>014729</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>前海开源新兴产业混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.62</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.1993</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -941,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002023</t>
+          <t>011957</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红塔红土稳健回报灵活配置混合A</t>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.1812</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -979,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501039</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）A</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.1370</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1017,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012217</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红塔红土盛利混合型证券投资基金C</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>52.09</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0833</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1055,36 +1023,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501040</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>91.52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1093,36 +1061,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002164</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,36 +1477,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>009736</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>汇添富稳健收益混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>35.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>37.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1618</t>
+          <t>0.8256</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1509,36 +1515,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011956</t>
+          <t>009737</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金A</t>
+          <t>汇添富稳健收益混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>12.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>37.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8633</t>
+          <t>0.2848</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1547,36 +1553,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011460</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华创新成长混合A</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>89.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4160</t>
+          <t>0.1827</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1585,36 +1591,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3417</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1623,36 +1629,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2762</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1661,36 +1667,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>002024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>红塔红土稳健回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>65.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2519</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1699,36 +1705,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>012216</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>红塔红土盛利混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>52.09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2371</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1737,36 +1743,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014729</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合C</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>88.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1993</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1775,36 +1781,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011957</t>
+          <t>002023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华新能源精选混合型证券投资基金C</t>
+          <t>红塔红土稳健回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>65.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1812</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1813,36 +1819,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1370</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1851,36 +1857,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>012217</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>红塔红土盛利混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>52.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0833</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1889,36 +1895,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.52</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0278</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1927,74 +1933,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>002164</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>汇添富新睿精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011461</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.60</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2008,96 +1976,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.22</v>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>4.22</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -549,6 +566,1690 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5217</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004276</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009028</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004277</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛安和回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1136,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1420,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1970,7 +3671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/002011-盾安环境.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>9.050000000000001</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.52</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -566,6 +583,1382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016464</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1179</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016465</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴证全球合瑞混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>017732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>017511</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +3642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2837,7 +4230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3121,7 +4514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3671,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
